--- a/CCNA/CCNA_Code合集.xlsx
+++ b/CCNA/CCNA_Code合集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>第五章：变长子网掩码、汇总和TCP/IP 故障排除</t>
   </si>
   <si>
-    <t>ip subnet-zero：ip subnet zero 是用来限制router不可使用与class相同的subnet. IP SUBNET-ZERO是说你可以使用子网里的第一个子网和最后一个子网,比如说192.168.1.0/25,可以分为192.168.1.0和192.168.1.128子网,在没有使用IP SUBNET-ZERO时着两个子网是 不可以用的,用了这个命令就可以了。</t>
+    <t>ip subnet-zero
+ip subnet zero 是用来限制router不可使用与class相同的subnet. IP SUBNET-ZERO是说你可以使用子网里的第一个子网和最后一个子网,比如说192.168.1.0/25,可以分为192.168.1.0和192.168.1.128子网,在没有使用IP SUBNET-ZERO时着两个子网是 不可以用的,用了这个命令就可以了。</t>
+  </si>
+  <si>
+    <t>ping
+使用ICMP回应请求和应答进行测试，检查网络中节点的1P栈是否已初始化并处于活 动状态。</t>
+  </si>
+  <si>
+    <t>□traceroute
+使用TTL超时和ICMP错误消息，显示前往某个网络冃的地时经过的路径上的 所有路由器。在命令提示符窗口中，不能使用该命令。</t>
+  </si>
+  <si>
+    <t>tracert
+功能与traceroute相同,是一个Microsoft Windows命令，在思科路由器上不管用。</t>
+  </si>
+  <si>
+    <t>arp -a 
+在Windows PC中显示IP地址到MAC地址的映射</t>
+  </si>
+  <si>
+    <t>show ip arp
+功能与arp -a相同，但用于在思料路由器中显示ARP表口与命令trace route 和tracert 样，命令arp -a show 5p日rp也只能分别用于DO§和思科路由器中。</t>
+  </si>
+  <si>
+    <t>ipconfig /all
+只能在命令提示符窗口中使用，显示PC的网络配置。</t>
   </si>
 </sst>
 </file>
@@ -32,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -60,22 +85,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,14 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,44 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,55 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +428,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,21 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,6 +470,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,15 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -511,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="2.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.125" style="3" customWidth="1"/>
@@ -1044,7 +1069,7 @@
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" ht="48" customHeight="1" spans="2:3">
+    <row r="3" ht="40.5" spans="2:3">
       <c r="B3" s="3">
         <f>MAX(B1,B2)+1</f>
         <v>1</v>
@@ -1053,8 +1078,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="6"/>
+    <row r="4" ht="27" spans="2:3">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B13" si="0">MAX(B2,B3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:3">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="2:3">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:3">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:3">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="2:3">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.196527777777778" right="0.156944444444444" top="0.196527777777778" bottom="0.156944444444444" header="0.156944444444444" footer="0.550694444444444"/>

--- a/CCNA/CCNA_Code合集.xlsx
+++ b/CCNA/CCNA_Code合集.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$97</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>第五章：变长子网掩码、汇总和TCP/IP 故障排除</t>
   </si>
@@ -51,16 +51,19 @@
     <t>ipconfig /all
 只能在命令提示符窗口中使用，显示PC的网络配置。</t>
   </si>
+  <si>
+    <t>第六章：思科互联网络操作系统</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -85,16 +88,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,8 +209,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,112 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,9 +436,56 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,17 +505,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,56 +531,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1054,7 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="150" zoomScaleSheetLayoutView="105" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1132,28 +1135,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>MAX(B10,B11)+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>MAX(B11,B12)+1</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
